--- a/static/uploads/Book1.xlsx
+++ b/static/uploads/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts-taichi.toyama\Box\Confidential_00_松山料金センター\Confidential_08_BOX個人フォルダ\Confidential_toyama taichi\ツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D74DFF-7950-4320-9777-A88FE6A98314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC211A37-AF7A-4C3D-B3A4-216B60A10774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="7485" windowWidth="15885" windowHeight="7875" activeTab="2" xr2:uid="{FE62B3BF-D477-47CE-B1B9-9B1763884B8C}"/>
+    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FE62B3BF-D477-47CE-B1B9-9B1763884B8C}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -5725,6 +5725,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227798E8-78A2-3E04-9C32-C71A67FA789D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7010400" y="39766875"/>
+          <a:ext cx="36576000" cy="20574000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6047,8 +6113,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1296"/>
   <sheetViews>
-    <sheetView topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="B643" sqref="B643"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -17581,7 +17647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2839EBB9-6D75-4160-8B56-7EC975859086}">
   <dimension ref="A1:F479"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -21856,6 +21924,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21863,12 +21932,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B5B432-CC05-4FAA-929B-57EB5155D264}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="118.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
